--- a/Copilot/CopilotDOC.xlsx
+++ b/Copilot/CopilotDOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IGOR\IGOR\IgorAyelloBorges\PROJETOS\FinancialMarketSimulatorRealData\Copilot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9A274E-E2F8-401D-8392-98D53B49FBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E6F23-F9AB-414D-AF3B-078833AA820C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94286A15-74E0-4448-8809-569685BF6ECD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Pergunta</t>
   </si>
@@ -270,6 +270,172 @@
 6. **Verifique a conexão com o banco de dados**:
    - Certifique-se de que a aplicação está conseguindo se conectar ao banco de dados SQL Server. Verifique se a string de conexão está correta e que o serviço do banco de dados está ativo.
 Se você seguir esses passos e ainda encontrar problemas, forneça mais detalhes sobre as mensagens de erro ou comportamentos inesperados que está observando, e vou ajudar a solucionar o problema.</t>
+  </si>
+  <si>
+    <t>Criar tabela SegmentoClassificacao</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server onde deverá constar a primary key identity ID, a sigla e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela Segmento</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Setor Econômico" onde deverá constar a primary key identity ID e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela Subsetor</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Subsetor" onde deverá constar a primary key identity ID e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela SetorEconomico</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Segmento" onde deverá constar a primary key identity ID e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela Empresa</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Empresa" onde deverá constar a primary key identity ID, Nome, código (sigla) fazendo chave estrangeira para as seguintes 
+tabelas dbo.SegmentoClassificacao (NÃO obrigatória), SetorEconomico (obrigatória), Subsetor (obrigatória) e Segmento (obrigatória).</t>
+  </si>
+  <si>
+    <t>Claro! Aqui está um exemplo de script SQL para criar uma tabela no SQL Server com uma coluna de chave primária (`ID`) com identidade, uma coluna para a sigla (`sigla`) e uma coluna para o descritivo (`descritivo`):
+```sql
+USE your_database_name;
+GO
+CREATE TABLE your_table_name (
+    ID INT PRIMARY KEY IDENTITY(1,1),
+    sigla NVARCHAR(10) NOT NULL,
+    descritivo NVARCHAR(255) NOT NULL
+);
+```
+### Explicação do Script
+- `USE your_database_name;`: Especifica o banco de dados onde a tabela será criada. Substitua `your_database_name` pelo nome do seu banco de dados.
+- `CREATE TABLE your_table_name`: Cria uma nova tabela. Substitua `your_table_name` pelo nome desejado para sua tabela.
+- `ID INT PRIMARY KEY IDENTITY(1,1)`: Cria uma coluna `ID` do tipo inteiro, que é a chave primária da tabela e que será preenchida automaticamente com valores sequenciais iniciando em 1.
+- `sigla NVARCHAR(10) NOT NULL`: Cria uma coluna `sigla` do tipo `NVARCHAR` com tamanho máximo de 10 caracteres, que não pode ser nula.
+- `descritivo NVARCHAR(255) NOT NULL`: Cria uma coluna `descritivo` do tipo `NVARCHAR` com tamanho máximo de 255 caracteres, que não pode ser nula.
+### Como Executar o Script
+1. Abra uma ferramenta de gerenciamento de banco de dados SQL Server (como SQL Server Management Studio ou Azure Data Studio).
+2. Conecte-se ao seu servidor SQL Server e selecione o banco de dados onde deseja criar a tabela.
+3. Abra uma nova consulta.
+4. Cole o script SQL na janela de consulta.
+5. Execute o script (clicando no botão "Execute" ou pressionando `F5`).
+Isso criará a tabela com as colunas especificadas no banco de dados SQL Server. Se precisar de mais ajuda ou tiver alguma dúvida, estou aqui para ajudar!</t>
+  </si>
+  <si>
+    <t>Claro! Aqui está um exemplo de script SQL para criar uma tabela no SQL Server chamada "Setor Econômico" com uma coluna de chave primária (`ID`) com identidade e uma coluna para o descritivo (`descritivo`):
+```sql
+USE your_database_name;
+GO
+CREATE TABLE [Setor Econômico] (
+    ID INT PRIMARY KEY IDENTITY(1,1),
+    descritivo NVARCHAR(255) NOT NULL
+);
+```
+### Explicação do Script
+- `USE your_database_name;`: Especifica o banco de dados onde a tabela será criada. Substitua `your_database_name` pelo nome do seu banco de dados.
+- `CREATE TABLE [Setor Econômico]`: Cria uma nova tabela chamada "Setor Econômico".
+- `ID INT PRIMARY KEY IDENTITY(1,1)`: Cria uma coluna `ID` do tipo inteiro, que é a chave primária da tabela e que será preenchida automaticamente com valores sequenciais iniciando em 1.
+- `descritivo NVARCHAR(255) NOT NULL`: Cria uma coluna `descritivo` do tipo `NVARCHAR` com tamanho máximo de 255 caracteres, que não pode ser nula.
+### Como Executar o Script
+1. Abra uma ferramenta de gerenciamento de banco de dados SQL Server (como SQL Server Management Studio ou Azure Data Studio).
+2. Conecte-se ao seu servidor SQL Server e selecione o banco de dados onde deseja criar a tabela.
+3. Abra uma nova consulta.
+4. Cole o script SQL na janela de consulta.
+5. Execute o script (clicando no botão "Execute" ou pressionando `F5`).
+Isso criará a tabela "Setor Econômico" no banco de dados especificado. Se precisar de mais ajuda ou tiver alguma dúvida, estou aqui para ajudar!</t>
+  </si>
+  <si>
+    <t>Aqui está um exemplo de script SQL para criar uma tabela chamada "Segmento" no SQL Server, com uma coluna de chave primária (`ID`) com identidade e uma coluna para o descritivo (`descritivo`):
+```sql
+USE your_database_name;
+GO
+CREATE TABLE Segmento (
+    ID INT PRIMARY KEY IDENTITY(1,1),
+    descritivo NVARCHAR(255) NOT NULL
+);
+```
+### Explicação do Script
+- `USE your_database_name;`: Especifica o banco de dados onde a tabela será criada. Substitua `your_database_name` pelo nome do seu banco de dados.
+- `CREATE TABLE Segmento`: Cria uma nova tabela chamada "Segmento".
+- `ID INT PRIMARY KEY IDENTITY(1,1)`: Cria uma coluna `ID` do tipo inteiro, que é a chave primária da tabela e que será preenchida automaticamente com valores sequenciais iniciando em 1.
+- `descritivo NVARCHAR(255) NOT NULL`: Cria uma coluna `descritivo` do tipo `NVARCHAR` com tamanho máximo de 255 caracteres, que não pode ser nula.
+### Como Executar o Script
+1. Abra uma ferramenta de gerenciamento de banco de dados SQL Server (como SQL Server Management Studio ou Azure Data Studio).
+2. Conecte-se ao seu servidor SQL Server e selecione o banco de dados onde deseja criar a tabela.
+3. Abra uma nova consulta.
+4. Cole o script SQL na janela de consulta.
+5. Execute o script (clicando no botão "Execute" ou pressionando `F5`).
+Isso criará a tabela "Segmento" no banco de dados especificado. Se precisar de mais ajuda ou tiver alguma dúvida, estou aqui para ajudar!</t>
+  </si>
+  <si>
+    <t>Claro! Aqui está um exemplo de script SQL para criar uma tabela chamada "Subsetor" no SQL Server, com uma coluna de chave primária (`ID`) com identidade e uma coluna para o descritivo (`descritivo`):
+```sql
+USE your_database_name;
+GO
+CREATE TABLE Subsetor (
+    ID INT PRIMARY KEY IDENTITY(1,1),
+    descritivo NVARCHAR(255) NOT NULL
+);
+```
+### Explicação do Script
+- `USE your_database_name;`: Especifica o banco de dados onde a tabela será criada. Substitua `your_database_name` pelo nome do seu banco de dados.
+- `CREATE TABLE Subsetor`: Cria uma nova tabela chamada "Subsetor".
+- `ID INT PRIMARY KEY IDENTITY(1,1)`: Cria uma coluna `ID` do tipo inteiro, que é a chave primária da tabela e que será preenchida automaticamente com valores sequenciais iniciando em 1.
+- `descritivo NVARCHAR(255) NOT NULL`: Cria uma coluna `descritivo` do tipo `NVARCHAR` com tamanho máximo de 255 caracteres, que não pode ser nula.
+### Como Executar o Script
+1. Abra uma ferramenta de gerenciamento de banco de dados SQL Server (como SQL Server Management Studio ou Azure Data Studio).
+2. Conecte-se ao seu servidor SQL Server e selecione o banco de dados onde deseja criar a tabela.
+3. Abra uma nova consulta.
+4. Cole o script SQL na janela de consulta.
+5. Execute o script (clicando no botão "Execute" ou pressionando `F5`).
+Isso criará a tabela "Subsetor" no banco de dados especificado. Se precisar de mais ajuda ou tiver alguma dúvida, estou aqui para ajudar!</t>
+  </si>
+  <si>
+    <t>Entendi! Aqui está um exemplo de script SQL para criar a tabela "Empresa" no SQL Server. A tabela terá uma coluna de chave primária (`ID`) com identidade, e as colunas `Nome` e `codigo` (sigla). Além disso, a tabela terá chaves estrangeiras para as tabelas `SegmentoClassificacao` (não obrigatória), `SetorEconomico` (obrigatória), `Subsetor` (obrigatória) e `Segmento` (obrigatória).
+```sql
+USE your_database_name;
+GO
+CREATE TABLE Empresa (
+    ID INT PRIMARY KEY IDENTITY(1,1),
+    Nome NVARCHAR(255) NOT NULL,
+    codigo NVARCHAR(10) NOT NULL,
+    SegmentoClassificacaoID INT NULL,
+    SetorEconomicoID INT NOT NULL,
+    SubsetorID INT NOT NULL,
+    SegmentoID INT NOT NULL,
+    CONSTRAINT FK_Empresa_SegmentoClassificacao FOREIGN KEY (SegmentoClassificacaoID) REFERENCES dbo.SegmentoClassificacao(ID),
+    CONSTRAINT FK_Empresa_SetorEconomico FOREIGN KEY (SetorEconomicoID) REFERENCES dbo.SetorEconomico(ID),
+    CONSTRAINT FK_Empresa_Subsetor FOREIGN KEY (SubsetorID) REFERENCES dbo.Subsetor(ID),
+    CONSTRAINT FK_Empresa_Segmento FOREIGN KEY (SegmentoID) REFERENCES dbo.Segmento(ID)
+);
+```
+### Explicação do Script
+- `USE your_database_name;`: Especifica o banco de dados onde a tabela será criada. Substitua `your_database_name` pelo nome do seu banco de dados.
+- `CREATE TABLE Empresa`: Cria uma nova tabela chamada "Empresa".
+- `ID INT PRIMARY KEY IDENTITY(1,1)`: Cria uma coluna `ID` do tipo inteiro, que é a chave primária da tabela e que será preenchida automaticamente com valores sequenciais iniciando em 1.
+- `Nome NVARCHAR(255) NOT NULL`: Cria uma coluna `Nome` do tipo `NVARCHAR` com tamanho máximo de 255 caracteres, que não pode ser nula.
+- `codigo NVARCHAR(10) NOT NULL`: Cria uma coluna `codigo` do tipo `NVARCHAR` com tamanho máximo de 10 caracteres, que não pode ser nula.
+- `SegmentoClassificacaoID INT NULL`: Cria uma coluna `SegmentoClassificacaoID` do tipo inteiro, que pode ser nula (não obrigatória).
+- `SetorEconomicoID INT NOT NULL`: Cria uma coluna `SetorEconomicoID` do tipo inteiro, que não pode ser nula (obrigatória).
+- `SubsetorID INT NOT NULL`: Cria uma coluna `SubsetorID` do tipo inteiro, que não pode ser nula (obrigatória).
+- `SegmentoID INT NOT NULL`: Cria uma coluna `SegmentoID` do tipo inteiro, que não pode ser nula (obrigatória).
+- `CONSTRAINT FK_Empresa_SegmentoClassificacao FOREIGN KEY (SegmentoClassificacaoID) REFERENCES dbo.SegmentoClassificacao(ID)`: Define a chave estrangeira para a tabela `SegmentoClassificacao`.
+- `CONSTRAINT FK_Empresa_SetorEconomico FOREIGN KEY (SetorEconomicoID) REFERENCES dbo.SetorEconomico(ID)`: Define a chave estrangeira para a tabela `SetorEconomico`.
+- `CONSTRAINT FK_Empresa_Subsetor FOREIGN KEY (SubsetorID) REFERENCES dbo.Subsetor(ID)`: Define a chave estrangeira para a tabela `Subsetor`.
+- `CONSTRAINT FK_Empresa_Segmento FOREIGN KEY (SegmentoID) REFERENCES dbo.Segmento(ID)`: Define a chave estrangeira para a tabela `Segmento`.
+### Como Executar o Script
+1. Abra uma ferramenta de gerenciamento de banco de dados SQL Server (como SQL Server Management Studio ou Azure Data Studio).
+2. Conecte-se ao seu servidor SQL Server e selecione o banco de dados onde deseja criar a tabela.
+3. Abra uma nova consulta.
+4. Cole o script SQL na janela de consulta.
+5. Execute o script (clicando no botão "Execute" ou pressionando `F5`).
+Isso criará a tabela "Empresa" no banco de dados especificado com as colunas e chaves estrangeiras desejadas. Se precisar de mais ajuda ou tiver alguma dúvida, estou aqui para ajudar!</t>
   </si>
 </sst>
 </file>
@@ -319,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,11 +499,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C306EA0C-B462-426C-9093-F405642008FF}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +894,7 @@
         <v>0.82777777777777772</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G5" si="0">F3-E3</f>
+        <f t="shared" ref="G3:G10" si="0">F3-E3</f>
         <v>6.2499999999999778E-3</v>
       </c>
     </row>
@@ -758,22 +919,127 @@
         <v>2.0833333333333259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="3">
         <v>0.8305555555555556</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="3">
         <v>0.83402777777777781</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
         <v>3.4722222222222099E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.93263888888888891</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.93541666666666667</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.93541666666666667</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.93611111111111112</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.93611111111111112</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.93680555555555556</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.94027777777777777</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777679E-3</v>
       </c>
     </row>
   </sheetData>
